--- a/results/mil_dl_report.xlsx
+++ b/results/mil_dl_report.xlsx
@@ -11,10 +11,10 @@
     <sheet name="FD002" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="FD003" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="FD004" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="drive-ball-1200-2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="drive-innerrace-1200-2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="fan-ball-1200" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="fan-innerrace-1200" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="DE-BB" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="DE-IR" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="FE-BB" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="FE-IR" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>1480.075008511543</v>
+        <v>409.8755932226777</v>
       </c>
       <c r="AM12" t="n">
-        <v>198.7478598728776</v>
+        <v>32.51701205968857</v>
       </c>
     </row>
     <row r="13">
@@ -2268,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>409.8755932226777</v>
+        <v>1480.075008511543</v>
       </c>
       <c r="AM13" t="n">
-        <v>32.51701205968857</v>
+        <v>198.7478598728776</v>
       </c>
     </row>
     <row r="14">
@@ -8007,78 +8007,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.33"/>
@@ -15686,78 +15614,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -17471,10 +17327,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>488.3318104445934</v>
+        <v>1830.3513533324</v>
       </c>
       <c r="AM12" t="n">
-        <v>40.78448769450188</v>
+        <v>256.8222747221589</v>
       </c>
     </row>
     <row r="13">
@@ -17604,10 +17460,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1830.3513533324</v>
+        <v>488.3318104445934</v>
       </c>
       <c r="AM13" t="n">
-        <v>256.8222747221589</v>
+        <v>40.78448769450188</v>
       </c>
     </row>
     <row r="14">
@@ -23343,78 +23199,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.33"/>
@@ -31022,78 +30806,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.33"/>
-        <cfvo type="num" val="0.66"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -31104,7 +30816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31360,10 +31072,10 @@
         <v>300</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>1e-09</v>
@@ -31477,10 +31189,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>34294.05436543375</v>
+        <v>31672.66187118739</v>
       </c>
       <c r="AM2" t="n">
-        <v>307.7035873681307</v>
+        <v>253.9127489700913</v>
       </c>
     </row>
     <row r="3">
@@ -31496,7 +31208,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
         <v>1e-09</v>
@@ -31610,10 +31322,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>20737.3091570884</v>
+        <v>34294.05436543375</v>
       </c>
       <c r="AM3" t="n">
-        <v>414.8852272629738</v>
+        <v>307.7035873681307</v>
       </c>
     </row>
     <row r="4">
@@ -31762,7 +31474,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>1e-09</v>
@@ -31876,10 +31588,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>32479.11622755975</v>
+        <v>20737.3091570884</v>
       </c>
       <c r="AM5" t="n">
-        <v>277.7632813379169</v>
+        <v>414.8852272629738</v>
       </c>
     </row>
     <row r="6">
@@ -31889,13 +31601,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>1e-09</v>
@@ -32009,10 +31721,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>34231.23417793214</v>
+        <v>32479.11622755975</v>
       </c>
       <c r="AM6" t="n">
-        <v>263.5517295375466</v>
+        <v>277.7632813379169</v>
       </c>
     </row>
     <row r="7">
@@ -32028,7 +31740,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>1e-09</v>
@@ -32142,10 +31854,10 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>32620.86817252636</v>
+        <v>34231.23417793214</v>
       </c>
       <c r="AM7" t="n">
-        <v>262.7788392528892</v>
+        <v>263.5517295375466</v>
       </c>
     </row>
     <row r="8">
@@ -32161,7 +31873,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>1e-09</v>
@@ -32275,26 +31987,26 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>34617.41701116413</v>
+        <v>32620.86817252636</v>
       </c>
       <c r="AM8" t="n">
-        <v>286.5859996452928</v>
+        <v>262.7788392528892</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CNNLSTM</t>
+          <t>BidLSTM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C9" t="n">
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>1e-09</v>
@@ -32306,10 +32018,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2041198501872659</v>
+        <v>0.2047440699126092</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1738095238095238</v>
       </c>
       <c r="J9" t="n">
         <v>0.2</v>
@@ -32318,47 +32030,47 @@
         <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06780715396578538</v>
+        <v>0.06797927461139897</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06265060240963856</v>
+        <v>0.05922920892494928</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2041198501872659</v>
+        <v>0.2047440699126092</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1738095238095238</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[0.0, 0.3390357698289269, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.3398963730569948]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.0, 0.3132530120481928, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.2961460446247464]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.04082397003745318</v>
+        <v>0.04094881398252185</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03714285714285714</v>
+        <v>0.03476190476190476</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2041198501872659</v>
+        <v>0.2047440699126092</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1738095238095238</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[0.0, 0.20411985018726592, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.20474406991260924]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>[0.0, 0.18571428571428572, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.1738095238095238]</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -32368,38 +32080,38 @@
         <v>0.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2041198501872659</v>
+        <v>0.2047440699126092</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1857142857142857</v>
+        <v>0.1738095238095238</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>0.795880149812734</v>
+        <v>0.7952559300873908</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.8142857142857143</v>
+        <v>0.8261904761904761</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04082397003745318</v>
+        <v>0.04094881398252185</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03714285714285714</v>
+        <v>0.03476190476190476</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1136600625651721</v>
+        <v>0.1140472878998609</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1023622047244094</v>
+        <v>0.09517601043024772</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -32408,10 +32120,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>29315.7835310325</v>
+        <v>34617.41701116413</v>
       </c>
       <c r="AM9" t="n">
-        <v>244.1637972742319</v>
+        <v>286.5859996452928</v>
       </c>
     </row>
     <row r="10">
@@ -32427,7 +32139,7 @@
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
         <v>1e-09</v>
@@ -32541,10 +32253,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>41392.27775679529</v>
+        <v>29315.7835310325</v>
       </c>
       <c r="AM10" t="n">
-        <v>356.2261088788509</v>
+        <v>244.1637972742319</v>
       </c>
     </row>
     <row r="11">
@@ -32560,7 +32272,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>1e-09</v>
@@ -32674,10 +32386,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>34189.92196322978</v>
+        <v>41392.27775679529</v>
       </c>
       <c r="AM11" t="n">
-        <v>285.0148694291711</v>
+        <v>356.2261088788509</v>
       </c>
     </row>
     <row r="12">
@@ -32687,13 +32399,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
         <v>1e-09</v>
@@ -32807,10 +32519,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>43452.04851584136</v>
+        <v>34189.92196322978</v>
       </c>
       <c r="AM12" t="n">
-        <v>408.4563505128026</v>
+        <v>285.0148694291711</v>
       </c>
     </row>
     <row r="13">
@@ -32826,7 +32538,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>1e-09</v>
@@ -32940,10 +32652,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>55739.50750118494</v>
+        <v>43452.04851584136</v>
       </c>
       <c r="AM13" t="n">
-        <v>488.2327969223261</v>
+        <v>408.4563505128026</v>
       </c>
     </row>
     <row r="14">
@@ -32959,7 +32671,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>1e-09</v>
@@ -33073,9 +32785,142 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
+        <v>55739.50750118494</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>488.2327969223261</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>500</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>10</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2041198501872659</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.06780715396578538</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.06265060240963856</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2041198501872659</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.3390357698289269, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.3132530120481928, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>0.04082397003745318</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.03714285714285714</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2041198501872659</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.20411985018726592, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.18571428571428572, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2041198501872659</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.1857142857142857</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.795880149812734</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.8142857142857143</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.04082397003745318</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.03714285714285714</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1136600625651721</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1023622047244094</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
         <v>29461.13052983582</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM15" t="n">
         <v>224.8614785596728</v>
       </c>
     </row>
@@ -33104,78 +32949,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -33186,7 +32959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM15"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33439,10 +33212,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
         <v>6</v>
@@ -33559,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>29263.5917038098</v>
+        <v>31231.70016793162</v>
       </c>
       <c r="AM2" t="n">
-        <v>297.2257072776556</v>
+        <v>300.5905421301723</v>
       </c>
     </row>
     <row r="3">
@@ -33572,7 +33345,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
         <v>30</v>
@@ -33692,10 +33465,10 @@
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>34865.82079933584</v>
+        <v>27079.9603349939</v>
       </c>
       <c r="AM3" t="n">
-        <v>272.4798367321491</v>
+        <v>261.1231817528605</v>
       </c>
     </row>
     <row r="4">
@@ -33711,7 +33484,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
         <v>1e-09</v>
@@ -33825,10 +33598,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>17659.33231391758</v>
+        <v>29263.5917038098</v>
       </c>
       <c r="AM4" t="n">
-        <v>374.1969685330987</v>
+        <v>297.2257072776556</v>
       </c>
     </row>
     <row r="5">
@@ -33844,7 +33617,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>1e-09</v>
@@ -33958,10 +33731,10 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>36486.389912799</v>
+        <v>34865.82079933584</v>
       </c>
       <c r="AM5" t="n">
-        <v>347.7661563530564</v>
+        <v>272.4798367321491</v>
       </c>
     </row>
     <row r="6">
@@ -33971,13 +33744,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C6" t="n">
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>1e-09</v>
@@ -34091,10 +33864,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>43245.98275825381</v>
+        <v>17659.33231391758</v>
       </c>
       <c r="AM6" t="n">
-        <v>451.1144082844257</v>
+        <v>374.1969685330987</v>
       </c>
     </row>
     <row r="7">
@@ -34104,13 +33877,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C7" t="n">
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E7" t="n">
         <v>1e-09</v>
@@ -34224,10 +33997,10 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>31849.28045105934</v>
+        <v>36486.389912799</v>
       </c>
       <c r="AM7" t="n">
-        <v>283.1388760954142</v>
+        <v>347.7661563530564</v>
       </c>
     </row>
     <row r="8">
@@ -34243,7 +34016,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>1e-09</v>
@@ -34357,26 +34130,26 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>29575.29782750458</v>
+        <v>43245.98275825381</v>
       </c>
       <c r="AM8" t="n">
-        <v>254.5005932748318</v>
+        <v>451.1144082844257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CNNLSTM</t>
+          <t>BidLSTM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>1e-09</v>
@@ -34388,10 +34161,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="J9" t="n">
         <v>0.2</v>
@@ -34400,47 +34173,47 @@
         <v>0.2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.06736842105263158</v>
+        <v>0.06771819137749738</v>
       </c>
       <c r="M9" t="n">
-        <v>0.06427221172022685</v>
+        <v>0.06171428571428571</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[0.0, 0.3368421052631579, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.33859095688748686]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.0, 0.32136105860113423, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.30857142857142855]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.04050632911392405</v>
+        <v>0.04075949367088608</v>
       </c>
       <c r="S9" t="n">
-        <v>0.03828828828828829</v>
+        <v>0.03648648648648649</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[0.0, 0.20253164556962025, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.20379746835443038]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>[0.0, 0.19144144144144143, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.18243243243243243]</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -34450,38 +34223,38 @@
         <v>0.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.7962025316455696</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.8085585585585585</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.04050632911392405</v>
+        <v>0.04075949367088608</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.03828828828828829</v>
+        <v>0.03648648648648649</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1126760563380282</v>
+        <v>0.1134601832276251</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1058530510585305</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -34490,26 +34263,26 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>27356.93581262976</v>
+        <v>31849.28045105934</v>
       </c>
       <c r="AM9" t="n">
-        <v>228.5173677876592</v>
+        <v>283.1388760954142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CNNLSTM</t>
+          <t>BidLSTM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C10" t="n">
         <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E10" t="n">
         <v>1e-09</v>
@@ -34521,10 +34294,10 @@
         <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="J10" t="n">
         <v>0.2</v>
@@ -34533,47 +34306,47 @@
         <v>0.2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.06736842105263158</v>
+        <v>0.06771819137749738</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06427221172022685</v>
+        <v>0.06171428571428571</v>
       </c>
       <c r="N10" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[0.0, 0.3368421052631579, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.33859095688748686]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.0, 0.32136105860113423, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.30857142857142855]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.04050632911392405</v>
+        <v>0.04075949367088608</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03828828828828829</v>
+        <v>0.03648648648648649</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>[0.0, 0.20253164556962025, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.20379746835443038]</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>[0.0, 0.19144144144144143, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 0.18243243243243243]</t>
         </is>
       </c>
       <c r="X10" t="n">
@@ -34583,38 +34356,38 @@
         <v>0.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2025316455696203</v>
+        <v>0.2037974683544304</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.1914414414414414</v>
+        <v>0.1824324324324324</v>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+          <t>[0.0, 0.0, 0.0, 0.0, 1.0]</t>
         </is>
       </c>
       <c r="AD10" t="n">
-        <v>0.7974683544303798</v>
+        <v>0.7962025316455696</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.8085585585585585</v>
+        <v>0.8175675675675675</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.04050632911392405</v>
+        <v>0.04075949367088608</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.03828828828828829</v>
+        <v>0.03648648648648649</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.1126760563380282</v>
+        <v>0.1134601832276251</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1058530510585305</v>
+        <v>0.1003717472118959</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -34623,10 +34396,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>32585.34272381663</v>
+        <v>29575.29782750458</v>
       </c>
       <c r="AM10" t="n">
-        <v>287.3749169632792</v>
+        <v>254.5005932748318</v>
       </c>
     </row>
     <row r="11">
@@ -34639,10 +34412,10 @@
         <v>300</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>1e-09</v>
@@ -34756,10 +34529,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>32896.06444200128</v>
+        <v>27356.93581262976</v>
       </c>
       <c r="AM11" t="n">
-        <v>329.0343400537968</v>
+        <v>228.5173677876592</v>
       </c>
     </row>
     <row r="12">
@@ -34775,7 +34548,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>1e-09</v>
@@ -34889,10 +34662,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>31394.45050684363</v>
+        <v>32585.34272381663</v>
       </c>
       <c r="AM12" t="n">
-        <v>267.9966020733118</v>
+        <v>287.3749169632792</v>
       </c>
     </row>
     <row r="13">
@@ -34902,13 +34675,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>1e-09</v>
@@ -35022,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>32214.54174930602</v>
+        <v>32896.06444200128</v>
       </c>
       <c r="AM13" t="n">
-        <v>272.3159218356013</v>
+        <v>329.0343400537968</v>
       </c>
     </row>
     <row r="14">
@@ -35035,13 +34808,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C14" t="n">
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>1e-09</v>
@@ -35155,10 +34928,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>30810.9834594205</v>
+        <v>31394.45050684363</v>
       </c>
       <c r="AM14" t="n">
-        <v>273.0555641576648</v>
+        <v>267.9966020733118</v>
       </c>
     </row>
     <row r="15">
@@ -35171,10 +34944,10 @@
         <v>500</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>1e-09</v>
@@ -35288,9 +35061,408 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
+        <v>28848.32139348984</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>234.6625307574868</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.06736842105263158</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.06427221172022685</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.3368421052631579, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.32136105860113423, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.20253164556962025, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19144144144144143, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.7974683544303798</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.8085585585585585</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.1058530510585305</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>32214.54174930602</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>272.3159218356013</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.06736842105263158</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.06427221172022685</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.3368421052631579, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.32136105860113423, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.20253164556962025, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19144144144144143, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.7974683544303798</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.8085585585585585</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1058530510585305</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>30810.9834594205</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>273.0555641576648</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F18" t="n">
+        <v>50</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.06736842105263158</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.06427221172022685</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.3368421052631579, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.32136105860113423, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.20253164556962025, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>[0.0, 0.19144144144144143, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="X18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2025316455696203</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.1914414414414414</v>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>[0.0, 1.0, 0.0, 0.0, 0.0]</t>
+        </is>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.7974683544303798</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.8085585585585585</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.04050632911392405</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.03828828828828829</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.1126760563380282</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.1058530510585305</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
         <v>32883.39004686475</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AM18" t="n">
         <v>313.2744706422091</v>
       </c>
     </row>
@@ -35319,78 +35491,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -35401,7 +35501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM16"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36854,10 +36954,10 @@
         <v>300</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
         <v>1e-09</v>
@@ -36971,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>22959.11233074963</v>
+        <v>19414.80235432833</v>
       </c>
       <c r="AM11" t="n">
-        <v>252.2785420492291</v>
+        <v>175.6714218258858</v>
       </c>
     </row>
     <row r="12">
@@ -36990,7 +37090,7 @@
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>1e-09</v>
@@ -37104,10 +37204,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>24582.30891709775</v>
+        <v>22959.11233074963</v>
       </c>
       <c r="AM12" t="n">
-        <v>194.3588876649737</v>
+        <v>252.2785420492291</v>
       </c>
     </row>
     <row r="13">
@@ -37123,7 +37223,7 @@
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>1e-09</v>
@@ -37237,10 +37337,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>19054.20376747102</v>
+        <v>24582.30891709775</v>
       </c>
       <c r="AM13" t="n">
-        <v>166.0759319961071</v>
+        <v>194.3588876649737</v>
       </c>
     </row>
     <row r="14">
@@ -37250,13 +37350,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C14" t="n">
         <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E14" t="n">
         <v>1e-09</v>
@@ -37370,10 +37470,10 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>27586.42551933229</v>
+        <v>19054.20376747102</v>
       </c>
       <c r="AM14" t="n">
-        <v>249.2616832256317</v>
+        <v>166.0759319961071</v>
       </c>
     </row>
     <row r="15">
@@ -37389,7 +37489,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15" t="n">
         <v>1e-09</v>
@@ -37503,10 +37603,10 @@
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>22852.34783829749</v>
+        <v>27586.42551933229</v>
       </c>
       <c r="AM15" t="n">
-        <v>190.4646462500095</v>
+        <v>249.2616832256317</v>
       </c>
     </row>
     <row r="16">
@@ -37522,7 +37622,7 @@
         <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="n">
         <v>1e-09</v>
@@ -37636,9 +37736,142 @@
         <v>0</v>
       </c>
       <c r="AL16" t="n">
+        <v>22852.34783829749</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>190.4646462500095</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2382445141065831</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.09620253164556962</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.113013698630137</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2382445141065831</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.3848101265822785]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.452054794520548]</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0.05956112852664577</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.07300884955752213</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2382445141065831</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.23824451410658307]</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.2920353982300885]</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2382445141065831</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2920353982300885</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.7617554858934169</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.7079646017699115</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.05956112852664577</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.07300884955752213</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1352313167259787</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1709844559585492</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>25153.21831127256</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AM17" t="n">
         <v>221.3380829691887</v>
       </c>
     </row>
@@ -37667,78 +37900,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -37749,7 +37910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AM17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38537,10 +38698,10 @@
         <v>500</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>1e-09</v>
@@ -38654,10 +38815,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>23085.17609992623</v>
+        <v>18823.38015999645</v>
       </c>
       <c r="AM6" t="n">
-        <v>165.0314128324389</v>
+        <v>131.1005169227719</v>
       </c>
     </row>
     <row r="7">
@@ -38673,7 +38834,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
         <v>1e-09</v>
@@ -38787,10 +38948,10 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>26913.89837387204</v>
+        <v>23085.17609992623</v>
       </c>
       <c r="AM7" t="n">
-        <v>197.4203314855695</v>
+        <v>165.0314128324389</v>
       </c>
     </row>
     <row r="8">
@@ -38806,7 +38967,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>1e-09</v>
@@ -38920,26 +39081,26 @@
         <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>21822.05395379663</v>
+        <v>26913.89837387204</v>
       </c>
       <c r="AM8" t="n">
-        <v>162.7978143766522</v>
+        <v>197.4203314855695</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CNNLSTM</t>
+          <t>BidLSTM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="C9" t="n">
         <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
         <v>1e-09</v>
@@ -38951,10 +39112,10 @@
         <v>5</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2347959969207082</v>
+        <v>0.2532717474980755</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3006329113924051</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="J9" t="n">
         <v>0.25</v>
@@ -38963,47 +39124,47 @@
         <v>0.25</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09507481296758104</v>
+        <v>0.1010442260442261</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1155717761557178</v>
+        <v>0.0959079283887468</v>
       </c>
       <c r="N9" t="n">
-        <v>0.2347959969207082</v>
+        <v>0.2532717474980755</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3006329113924051</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.38029925187032415]</t>
+          <t>[0.0, 0.4041769041769042, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.46228710462287104]</t>
+          <t>[0.0, 0.3836317135549872, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.05869899923017706</v>
+        <v>0.06331793687451887</v>
       </c>
       <c r="S9" t="n">
-        <v>0.07515822784810126</v>
+        <v>0.05933544303797468</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2347959969207082</v>
+        <v>0.2532717474980755</v>
       </c>
       <c r="U9" t="n">
-        <v>0.3006329113924051</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.23479599692070824]</t>
+          <t>[0.0, 0.25327174749807546, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 0.30063291139240506]</t>
+          <t>[0.0, 0.23734177215189872, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="X9" t="n">
@@ -39013,38 +39174,38 @@
         <v>0.25</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2347959969207082</v>
+        <v>0.2532717474980755</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.3006329113924051</v>
+        <v>0.2373417721518987</v>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 1.0]</t>
+          <t>[0.0, 1.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>[0.0, 0.0, 0.0, 1.0]</t>
+          <t>[0.0, 1.0, 0.0, 0.0]</t>
         </is>
       </c>
       <c r="AD9" t="n">
-        <v>0.7652040030792918</v>
+        <v>0.7467282525019245</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.6993670886075949</v>
+        <v>0.7626582278481012</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.05869899923017706</v>
+        <v>0.06331793687451887</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.07515822784810126</v>
+        <v>0.05933544303797468</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.1330135194068905</v>
+        <v>0.1449977963860732</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1769087523277467</v>
+        <v>0.1346499102333932</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -39053,10 +39214,10 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>21796.03315135092</v>
+        <v>21822.05395379663</v>
       </c>
       <c r="AM9" t="n">
-        <v>203.0695505440235</v>
+        <v>162.7978143766522</v>
       </c>
     </row>
     <row r="10">
@@ -39069,7 +39230,7 @@
         <v>300</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
         <v>8</v>
@@ -39186,10 +39347,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>20706.08576811105</v>
+        <v>35160.84070776403</v>
       </c>
       <c r="AM10" t="n">
-        <v>145.6695823445916</v>
+        <v>258.252301774919</v>
       </c>
     </row>
     <row r="11">
@@ -39205,7 +39366,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>1e-09</v>
@@ -39319,10 +39480,10 @@
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>22164.54696856439</v>
+        <v>21796.03315135092</v>
       </c>
       <c r="AM11" t="n">
-        <v>167.0214365273714</v>
+        <v>203.0695505440235</v>
       </c>
     </row>
     <row r="12">
@@ -39332,13 +39493,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C12" t="n">
         <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>1e-09</v>
@@ -39452,10 +39613,10 @@
         <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>22255.86796119809</v>
+        <v>20706.08576811105</v>
       </c>
       <c r="AM12" t="n">
-        <v>167.9250702038407</v>
+        <v>145.6695823445916</v>
       </c>
     </row>
     <row r="13">
@@ -39465,13 +39626,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C13" t="n">
         <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
         <v>1e-09</v>
@@ -39585,10 +39746,10 @@
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>26769.21134717017</v>
+        <v>22164.54696856439</v>
       </c>
       <c r="AM13" t="n">
-        <v>191.9233613535762</v>
+        <v>167.0214365273714</v>
       </c>
     </row>
     <row r="14">
@@ -39601,10 +39762,10 @@
         <v>500</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="n">
         <v>1e-09</v>
@@ -39718,9 +39879,408 @@
         <v>0</v>
       </c>
       <c r="AL14" t="n">
+        <v>18314.78348617256</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>134.9905331581831</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>500</v>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.09507481296758104</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.1155717761557178</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.38029925187032415]</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.46228710462287104]</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.23479599692070824]</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.30063291139240506]</t>
+        </is>
+      </c>
+      <c r="X15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.7652040030792918</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.6993670886075949</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1330135194068905</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1769087523277467</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>22255.86796119809</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>167.9250702038407</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>500</v>
+      </c>
+      <c r="C16" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.09507481296758104</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.1155717761557178</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.38029925187032415]</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.46228710462287104]</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.23479599692070824]</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.30063291139240506]</t>
+        </is>
+      </c>
+      <c r="X16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.7652040030792918</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.6993670886075949</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.1330135194068905</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.1769087523277467</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>26769.21134717017</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>191.9233613535762</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CNNLSTM</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>500</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1e-09</v>
+      </c>
+      <c r="F17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.09507481296758104</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1155717761557178</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.38029925187032415]</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.46228710462287104]</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.23479599692070824]</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 0.30063291139240506]</t>
+        </is>
+      </c>
+      <c r="X17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2347959969207082</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.3006329113924051</v>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>[0.0, 0.0, 0.0, 1.0]</t>
+        </is>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.7652040030792918</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.6993670886075949</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.05869899923017706</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.07515822784810126</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1330135194068905</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1769087523277467</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
         <v>22703.60673616827</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM17" t="n">
         <v>176.1957367360592</v>
       </c>
     </row>
@@ -39749,78 +40309,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF1:AF1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AG1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH1:AH1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI1:AI1000">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0.2"/>
-        <cfvo type="num" val="0.5"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="00FF0000"/>
-        <color rgb="00FFEB84"/>
-        <color rgb="0000B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>